--- a/TaiLieuCodegym_module2/[A0321I1] TKB Advanced Programming in Java.xlsx
+++ b/TaiLieuCodegym_module2/[A0321I1] TKB Advanced Programming in Java.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A0321I1-TranMinhKhoa\TaiLieuCodegym_module2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BADF8C9-D516-4799-812F-C539FB6F4F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TKB APJ 3x4" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Holidays 2020,2021" sheetId="2" r:id="rId5"/>
+    <sheet name="TKB APJ 3x4" sheetId="1" r:id="rId1"/>
+    <sheet name="Holidays 2020,2021" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjtB2y/5DAZBvfVsA5KxcIOrhbnmA=="/>
@@ -17,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>THỜI KHOÁ BIỂU</t>
   </si>
@@ -356,107 +365,113 @@
   <si>
     <t>QK</t>
   </si>
+  <si>
+    <t>r</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d&quot;,&quot;dddd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -466,7 +481,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -512,12 +527,19 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -532,6 +554,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -540,26 +563,34 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -572,6 +603,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -583,107 +615,120 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -694,11 +739,17 @@
     <xdr:ext cx="1714500" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -715,12 +766,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -910,30 +957,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.0"/>
-    <col customWidth="1" min="2" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="13.86"/>
-    <col customWidth="1" min="5" max="5" width="15.57"/>
-    <col customWidth="1" min="6" max="6" width="42.14"/>
-    <col customWidth="1" min="7" max="7" width="24.86"/>
-    <col customWidth="1" min="8" max="9" width="11.43"/>
-    <col customWidth="1" min="10" max="26" width="13.43"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="42.08984375" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" customWidth="1"/>
+    <col min="8" max="9" width="11.453125" customWidth="1"/>
+    <col min="10" max="26" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
+    <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -961,7 +1010,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
+    <row r="2" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -991,7 +1040,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" ht="21.75" customHeight="1">
+    <row r="3" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5"/>
@@ -1021,7 +1070,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" ht="21.75" customHeight="1">
+    <row r="4" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
       <c r="B4" s="1"/>
       <c r="C4" s="7"/>
@@ -1051,7 +1100,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" ht="21.75" customHeight="1">
+    <row r="5" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="7"/>
@@ -1079,7 +1128,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
+    <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1113,13 +1162,14 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
+    <row r="7" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="37" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="38"/>
       <c r="D7" s="2"/>
       <c r="E7" s="8" t="s">
         <v>7</v>
@@ -1148,13 +1198,14 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
+    <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="37" t="s">
         <v>10</v>
       </c>
+      <c r="C8" s="38"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8" t="s">
         <v>11</v>
@@ -1183,7 +1234,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="18.0" customHeight="1">
+    <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +1270,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="18.0" customHeight="1">
+    <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -1251,7 +1302,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="18.0" customHeight="1">
+    <row r="11" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1279,7 +1330,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="30.0" customHeight="1">
+    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
@@ -1319,16 +1370,16 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" ht="18.0" customHeight="1">
+    <row r="13" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="18">
-        <v>44363.0</v>
+        <v>44363</v>
       </c>
       <c r="C13" s="19" t="str">
-        <f t="shared" ref="C13:C40" si="1">TEXT(B13,"ddd")</f>
-        <v>Th 4</v>
+        <f t="shared" ref="C13:C40" si="0">TEXT(B13,"ddd")</f>
+        <v>Wed</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>26</v>
@@ -1336,11 +1387,10 @@
       <c r="E13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="21" t="str">
-        <f t="shared" ref="F13:F37" si="2">IF(C13="Fri","Nộp báo cáo tuần","")</f>
-        <v/>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="2"/>
@@ -1361,17 +1411,17 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="18.0" customHeight="1">
+    <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <f>WORKDAY(B13,IF(WEEKDAY(B13) = 2, 2,IF(WEEKDAY(B13)=4,2,IF(WEEKDAY(B13)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44365</v>
       </c>
       <c r="C14" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 6</v>
+        <f t="shared" si="0"/>
+        <v>Fri</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>30</v>
@@ -1380,10 +1430,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G14" s="24"/>
+        <f t="shared" ref="F13:F37" si="1">IF(C14="Fri","Nộp báo cáo tuần","")</f>
+        <v>Nộp báo cáo tuần</v>
+      </c>
+      <c r="G14" s="40"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
       <c r="L14" s="2"/>
@@ -1402,17 +1452,17 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" ht="18.0" customHeight="1">
+    <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <f>WORKDAY(B14,IF(WEEKDAY(B14) = 2, 2,IF(WEEKDAY(B14)=4,2,IF(WEEKDAY(B14)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44368</v>
       </c>
       <c r="C15" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 2</v>
+        <f t="shared" si="0"/>
+        <v>Mon</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>33</v>
@@ -1421,10 +1471,10 @@
         <v>34</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="40"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
       <c r="L15" s="2"/>
@@ -1443,17 +1493,17 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="18.0" customHeight="1">
+    <row r="16" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <f>WORKDAY(B15,IF(WEEKDAY(B15) = 2, 2,IF(WEEKDAY(B15)=4,2,IF(WEEKDAY(B15)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44370</v>
       </c>
       <c r="C16" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 4</v>
+        <f t="shared" si="0"/>
+        <v>Wed</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>36</v>
@@ -1462,10 +1512,10 @@
         <v>37</v>
       </c>
       <c r="F16" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="40"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
@@ -1484,17 +1534,17 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="18.0" customHeight="1">
+    <row r="17" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <f>WORKDAY(B16,IF(WEEKDAY(B16) = 2, 2,IF(WEEKDAY(B16)=4,2,IF(WEEKDAY(B16)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44372</v>
       </c>
       <c r="C17" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 6</v>
+        <f t="shared" si="0"/>
+        <v>Fri</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>39</v>
@@ -1503,10 +1553,10 @@
         <v>40</v>
       </c>
       <c r="F17" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G17" s="24"/>
+        <f t="shared" si="1"/>
+        <v>Nộp báo cáo tuần</v>
+      </c>
+      <c r="G17" s="40"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
       <c r="L17" s="2"/>
@@ -1525,17 +1575,17 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="18.0" customHeight="1">
+    <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <f>WORKDAY(B17,IF(WEEKDAY(B17) = 2, 2,IF(WEEKDAY(B17)=4,2,IF(WEEKDAY(B17)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44375</v>
       </c>
       <c r="C18" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 2</v>
+        <f t="shared" si="0"/>
+        <v>Mon</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>40</v>
@@ -1544,10 +1594,10 @@
         <v>40</v>
       </c>
       <c r="F18" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="40"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
@@ -1566,17 +1616,17 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" ht="18.0" customHeight="1">
+    <row r="19" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <f>WORKDAY(B18,IF(WEEKDAY(B18) = 2, 2,IF(WEEKDAY(B18)=4,2,IF(WEEKDAY(B18)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44377</v>
       </c>
       <c r="C19" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 4</v>
+        <f t="shared" si="0"/>
+        <v>Wed</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>43</v>
@@ -1585,10 +1635,10 @@
         <v>44</v>
       </c>
       <c r="F19" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="40"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
@@ -1607,17 +1657,17 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" ht="18.0" customHeight="1">
+    <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <f>WORKDAY(B19,IF(WEEKDAY(B19) = 2, 2,IF(WEEKDAY(B19)=4,2,IF(WEEKDAY(B19)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44379</v>
       </c>
       <c r="C20" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 6</v>
+        <f t="shared" si="0"/>
+        <v>Fri</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>44</v>
@@ -1626,10 +1676,10 @@
         <v>44</v>
       </c>
       <c r="F20" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G20" s="24"/>
+        <f t="shared" si="1"/>
+        <v>Nộp báo cáo tuần</v>
+      </c>
+      <c r="G20" s="40"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
@@ -1648,17 +1698,17 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="18.0" customHeight="1">
+    <row r="21" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <f>WORKDAY(B20,IF(WEEKDAY(B20) = 2, 2,IF(WEEKDAY(B20)=4,2,IF(WEEKDAY(B20)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44382</v>
       </c>
       <c r="C21" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 2</v>
+        <f t="shared" si="0"/>
+        <v>Mon</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>47</v>
@@ -1667,10 +1717,10 @@
         <v>48</v>
       </c>
       <c r="F21" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="40"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
@@ -1689,17 +1739,17 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="18.0" customHeight="1">
+    <row r="22" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <f>WORKDAY(B21,IF(WEEKDAY(B21) = 2, 2,IF(WEEKDAY(B21)=4,2,IF(WEEKDAY(B21)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44384</v>
       </c>
       <c r="C22" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 4</v>
+        <f t="shared" si="0"/>
+        <v>Wed</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>48</v>
@@ -1708,10 +1758,10 @@
         <v>48</v>
       </c>
       <c r="F22" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="40"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1730,17 +1780,17 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="18.0" customHeight="1">
+    <row r="23" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <f>WORKDAY(B22,IF(WEEKDAY(B22) = 2, 2,IF(WEEKDAY(B22)=4,2,IF(WEEKDAY(B22)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44386</v>
       </c>
       <c r="C23" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 6</v>
+        <f t="shared" si="0"/>
+        <v>Fri</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>51</v>
@@ -1749,12 +1799,12 @@
         <v>52</v>
       </c>
       <c r="F23" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G23" s="24"/>
+        <f t="shared" si="1"/>
+        <v>Nộp báo cáo tuần</v>
+      </c>
+      <c r="G23" s="40"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="25"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="2"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1771,17 +1821,17 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="18.0" customHeight="1">
+    <row r="24" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <f>WORKDAY(B23,IF(WEEKDAY(B23) = 2, 2,IF(WEEKDAY(B23)=4,2,IF(WEEKDAY(B23)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44389</v>
       </c>
       <c r="C24" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 2</v>
+        <f t="shared" si="0"/>
+        <v>Mon</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>54</v>
@@ -1790,10 +1840,10 @@
         <v>55</v>
       </c>
       <c r="F24" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="40"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
@@ -1812,17 +1862,17 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" ht="18.0" customHeight="1">
+    <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <f>WORKDAY(B24,IF(WEEKDAY(B24) = 2, 2,IF(WEEKDAY(B24)=4,2,IF(WEEKDAY(B24)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44391</v>
       </c>
       <c r="C25" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 4</v>
+        <f t="shared" si="0"/>
+        <v>Wed</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>55</v>
@@ -1831,10 +1881,10 @@
         <v>55</v>
       </c>
       <c r="F25" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="40"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
@@ -1853,17 +1903,17 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" ht="18.0" customHeight="1">
+    <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <f>WORKDAY(B25,IF(WEEKDAY(B25) = 2, 2,IF(WEEKDAY(B25)=4,2,IF(WEEKDAY(B25)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44393</v>
       </c>
       <c r="C26" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 6</v>
+        <f t="shared" si="0"/>
+        <v>Fri</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>58</v>
@@ -1872,10 +1922,10 @@
         <v>59</v>
       </c>
       <c r="F26" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G26" s="24"/>
+        <f t="shared" si="1"/>
+        <v>Nộp báo cáo tuần</v>
+      </c>
+      <c r="G26" s="40"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
@@ -1894,17 +1944,17 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" ht="18.0" customHeight="1">
+    <row r="27" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <f>WORKDAY(B26,IF(WEEKDAY(B26) = 2, 2,IF(WEEKDAY(B26)=4,2,IF(WEEKDAY(B26)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44396</v>
       </c>
       <c r="C27" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 2</v>
+        <f t="shared" si="0"/>
+        <v>Mon</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>59</v>
@@ -1913,10 +1963,10 @@
         <v>59</v>
       </c>
       <c r="F27" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="40"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
@@ -1935,17 +1985,17 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="18.0" customHeight="1">
+    <row r="28" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <f>WORKDAY(B27,IF(WEEKDAY(B27) = 2, 2,IF(WEEKDAY(B27)=4,2,IF(WEEKDAY(B27)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44398</v>
       </c>
       <c r="C28" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 4</v>
+        <f t="shared" si="0"/>
+        <v>Wed</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>62</v>
@@ -1954,10 +2004,10 @@
         <v>63</v>
       </c>
       <c r="F28" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="40"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
@@ -1976,17 +2026,17 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" ht="18.0" customHeight="1">
+    <row r="29" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <f>WORKDAY(B28,IF(WEEKDAY(B28) = 2, 2,IF(WEEKDAY(B28)=4,2,IF(WEEKDAY(B28)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44400</v>
       </c>
       <c r="C29" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 6</v>
+        <f t="shared" si="0"/>
+        <v>Fri</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>63</v>
@@ -1995,10 +2045,10 @@
         <v>63</v>
       </c>
       <c r="F29" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G29" s="24"/>
+        <f t="shared" si="1"/>
+        <v>Nộp báo cáo tuần</v>
+      </c>
+      <c r="G29" s="40"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
@@ -2017,17 +2067,17 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" ht="18.0" customHeight="1">
+    <row r="30" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <f>WORKDAY(B29,IF(WEEKDAY(B29) = 2, 2,IF(WEEKDAY(B29)=4,2,IF(WEEKDAY(B29)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44403</v>
       </c>
       <c r="C30" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 2</v>
+        <f t="shared" si="0"/>
+        <v>Mon</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>66</v>
@@ -2036,10 +2086,10 @@
         <v>67</v>
       </c>
       <c r="F30" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="40"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
@@ -2058,17 +2108,17 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" ht="18.0" customHeight="1">
+    <row r="31" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <f>WORKDAY(B30,IF(WEEKDAY(B30) = 2, 2,IF(WEEKDAY(B30)=4,2,IF(WEEKDAY(B30)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44405</v>
       </c>
       <c r="C31" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 4</v>
+        <f t="shared" si="0"/>
+        <v>Wed</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>69</v>
@@ -2077,10 +2127,10 @@
         <v>70</v>
       </c>
       <c r="F31" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="40"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
@@ -2099,17 +2149,17 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="18.0" customHeight="1">
+    <row r="32" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <f>WORKDAY(B31,IF(WEEKDAY(B31) = 2, 2,IF(WEEKDAY(B31)=4,2,IF(WEEKDAY(B31)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44407</v>
       </c>
       <c r="C32" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 6</v>
+        <f t="shared" si="0"/>
+        <v>Fri</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>72</v>
@@ -2118,10 +2168,10 @@
         <v>73</v>
       </c>
       <c r="F32" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G32" s="24"/>
+        <f t="shared" si="1"/>
+        <v>Nộp báo cáo tuần</v>
+      </c>
+      <c r="G32" s="40"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
@@ -2140,17 +2190,17 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" ht="18.0" customHeight="1">
+    <row r="33" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <f>WORKDAY(B32,IF(WEEKDAY(B32) = 2, 2,IF(WEEKDAY(B32)=4,2,IF(WEEKDAY(B32)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44410</v>
       </c>
       <c r="C33" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 2</v>
+        <f t="shared" si="0"/>
+        <v>Mon</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>73</v>
@@ -2159,10 +2209,10 @@
         <v>73</v>
       </c>
       <c r="F33" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="40"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
@@ -2181,17 +2231,17 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" ht="18.0" customHeight="1">
+    <row r="34" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <f>WORKDAY(B33,IF(WEEKDAY(B33) = 2, 2,IF(WEEKDAY(B33)=4,2,IF(WEEKDAY(B33)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44412</v>
       </c>
       <c r="C34" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 4</v>
+        <f t="shared" si="0"/>
+        <v>Wed</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>76</v>
@@ -2200,10 +2250,10 @@
         <v>77</v>
       </c>
       <c r="F34" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G34" s="24"/>
+      <c r="G34" s="40"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
       <c r="L34" s="2"/>
@@ -2222,17 +2272,17 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="18.0" customHeight="1">
+    <row r="35" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <f>WORKDAY(B34,IF(WEEKDAY(B34) = 2, 2,IF(WEEKDAY(B34)=4,2,IF(WEEKDAY(B34)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44414</v>
       </c>
       <c r="C35" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 6</v>
+        <f t="shared" si="0"/>
+        <v>Fri</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>79</v>
@@ -2241,10 +2291,10 @@
         <v>80</v>
       </c>
       <c r="F35" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G35" s="24"/>
+        <f t="shared" si="1"/>
+        <v>Nộp báo cáo tuần</v>
+      </c>
+      <c r="G35" s="40"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
@@ -2263,29 +2313,29 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" ht="18.0" customHeight="1">
+    <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="22">
         <f>WORKDAY(B35,IF(WEEKDAY(B35) = 2, 2,IF(WEEKDAY(B35)=4,2,IF(WEEKDAY(B35)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44417</v>
       </c>
       <c r="C36" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Th 2</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="21" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G36" s="24"/>
+      <c r="G36" s="40"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
@@ -2304,29 +2354,29 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="22">
         <f>WORKDAY(B36,IF(WEEKDAY(B36) = 2, 2,IF(WEEKDAY(B36)=4,2,IF(WEEKDAY(B36)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44419</v>
       </c>
       <c r="C37" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Th 4</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="21" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="2"/>
@@ -2347,28 +2397,28 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="22">
         <f>WORKDAY(B37,IF(WEEKDAY(B37) = 2, 2,IF(WEEKDAY(B37)=4,2,IF(WEEKDAY(B37)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44421</v>
       </c>
       <c r="C38" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 6</v>
-      </c>
-      <c r="D38" s="28" t="s">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="24"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="2"/>
@@ -2389,28 +2439,28 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <f>WORKDAY(B38,IF(WEEKDAY(B38) = 2, 2,IF(WEEKDAY(B38)=4,2,IF(WEEKDAY(B38)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44424</v>
       </c>
       <c r="C39" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 2</v>
-      </c>
-      <c r="D39" s="28" t="s">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="24"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="2"/>
@@ -2431,24 +2481,24 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" ht="18.0" customHeight="1">
+    <row r="40" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="22">
         <f>WORKDAY(B39,IF(WEEKDAY(B39) = 2, 2,IF(WEEKDAY(B39)=4,2,IF(WEEKDAY(B39)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
         <v>44426</v>
       </c>
       <c r="C40" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Th 4</v>
-      </c>
-      <c r="D40" s="31" t="s">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="D40" s="29" t="s">
         <v>92</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="32"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="1"/>
@@ -2469,7 +2519,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" ht="18.0" customHeight="1">
+    <row r="41" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2497,9 +2547,9 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" ht="18.0" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34" t="s">
+    <row r="42" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="30"/>
+      <c r="B42" s="31" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2529,7 +2579,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="18.0" customHeight="1">
+    <row r="43" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>95</v>
@@ -2561,9 +2611,9 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" ht="18.0" customHeight="1">
+    <row r="44" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="32" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2593,7 +2643,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>99</v>
@@ -2625,7 +2675,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>87</v>
@@ -2657,7 +2707,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2685,7 +2735,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2713,7 +2763,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2741,7 +2791,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2769,7 +2819,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2797,7 +2847,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2825,7 +2875,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2853,7 +2903,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2881,7 +2931,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2909,7 +2959,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2937,7 +2987,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2965,7 +3015,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2993,7 +3043,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3021,7 +3071,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3049,7 +3099,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3077,7 +3127,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3105,7 +3155,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3133,7 +3183,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3161,7 +3211,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3189,7 +3239,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3217,7 +3267,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3245,7 +3295,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3273,7 +3323,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3301,7 +3351,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3329,7 +3379,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3357,7 +3407,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3385,7 +3435,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3413,7 +3463,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3441,7 +3491,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3469,7 +3519,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3497,7 +3547,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3525,7 +3575,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3553,7 +3603,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3581,7 +3631,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3609,7 +3659,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3637,7 +3687,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3665,7 +3715,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3693,7 +3743,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3721,7 +3771,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3749,7 +3799,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3777,7 +3827,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3805,7 +3855,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3833,7 +3883,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3861,7 +3911,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3889,7 +3939,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3917,7 +3967,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3945,7 +3995,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3973,7 +4023,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4001,7 +4051,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4029,7 +4079,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4057,7 +4107,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4085,7 +4135,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4113,7 +4163,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4141,7 +4191,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4169,7 +4219,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4197,7 +4247,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4225,7 +4275,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4253,7 +4303,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4281,7 +4331,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4309,7 +4359,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4337,7 +4387,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4365,7 +4415,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4393,7 +4443,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4421,7 +4471,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4449,7 +4499,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4477,7 +4527,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4505,7 +4555,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4533,7 +4583,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4561,7 +4611,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4589,7 +4639,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4617,7 +4667,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4645,7 +4695,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4673,7 +4723,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4701,7 +4751,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4729,7 +4779,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4757,7 +4807,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4785,7 +4835,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4813,7 +4863,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4841,7 +4891,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4869,7 +4919,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4897,7 +4947,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4925,7 +4975,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4953,7 +5003,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4981,7 +5031,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5009,7 +5059,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5037,7 +5087,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5065,7 +5115,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5093,7 +5143,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5121,7 +5171,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5149,7 +5199,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5177,7 +5227,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5205,7 +5255,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5233,7 +5283,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5261,7 +5311,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5289,7 +5339,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5317,7 +5367,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5345,7 +5395,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5373,7 +5423,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5401,7 +5451,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5429,7 +5479,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5457,7 +5507,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5485,7 +5535,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5513,7 +5563,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5541,7 +5591,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5569,7 +5619,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5597,7 +5647,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5625,7 +5675,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5653,7 +5703,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5681,7 +5731,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5709,7 +5759,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5737,7 +5787,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5765,7 +5815,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5793,7 +5843,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5821,7 +5871,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5849,7 +5899,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5877,7 +5927,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5905,7 +5955,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5933,7 +5983,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5961,7 +6011,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5989,7 +6039,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6017,7 +6067,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6045,7 +6095,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6073,7 +6123,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6101,7 +6151,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6129,7 +6179,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6157,7 +6207,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6185,7 +6235,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6213,7 +6263,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6241,7 +6291,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6269,7 +6319,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6297,7 +6347,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6325,7 +6375,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6353,7 +6403,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6381,7 +6431,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6409,7 +6459,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6437,7 +6487,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6465,7 +6515,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6493,7 +6543,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6521,7 +6571,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6549,7 +6599,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6577,7 +6627,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6605,7 +6655,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6633,7 +6683,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6661,7 +6711,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6689,7 +6739,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6717,7 +6767,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6745,7 +6795,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6773,7 +6823,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6801,7 +6851,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6829,7 +6879,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6857,7 +6907,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6885,7 +6935,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6913,7 +6963,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6941,7 +6991,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6969,7 +7019,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6997,7 +7047,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7025,7 +7075,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7053,7 +7103,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7081,7 +7131,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7109,7 +7159,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7137,7 +7187,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7165,7 +7215,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7193,7 +7243,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7221,7 +7271,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7249,7 +7299,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7277,7 +7327,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7305,7 +7355,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7333,7 +7383,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7361,7 +7411,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7389,7 +7439,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7417,7 +7467,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7445,7 +7495,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7473,7 +7523,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7501,7 +7551,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7529,7 +7579,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7557,7 +7607,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7585,7 +7635,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7613,7 +7663,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7641,7 +7691,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7669,7 +7719,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7697,7 +7747,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7725,7 +7775,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7753,7 +7803,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7781,7 +7831,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7809,7 +7859,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7837,7 +7887,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7865,7 +7915,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7893,7 +7943,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7921,7 +7971,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7949,7 +7999,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7977,7 +8027,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8005,7 +8055,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8033,7 +8083,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8061,7 +8111,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8089,7 +8139,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8117,7 +8167,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8145,7 +8195,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8173,7 +8223,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8201,7 +8251,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8229,7 +8279,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8257,797 +8307,796 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="G13:G40"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="30.29"/>
-    <col customWidth="1" min="3" max="6" width="14.43"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" customWidth="1"/>
+    <col min="3" max="6" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>104</v>
       </c>
       <c r="D1" s="2"/>
@@ -9071,14 +9120,14 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="38">
-        <v>44197.0</v>
-      </c>
-      <c r="C2" s="39" t="s">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
+        <v>44197</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>105</v>
       </c>
       <c r="D2" s="2"/>
@@ -9102,14 +9151,14 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="38">
-        <v>44235.0</v>
-      </c>
-      <c r="C3" s="39" t="s">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35">
+        <v>44235</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>106</v>
       </c>
       <c r="D3" s="2"/>
@@ -9133,14 +9182,14 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="37">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="38">
-        <v>44236.0</v>
-      </c>
-      <c r="C4" s="39" t="s">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35">
+        <v>44236</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D4" s="2"/>
@@ -9164,14 +9213,14 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="37">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="38">
-        <v>43850.0</v>
-      </c>
-      <c r="C5" s="39" t="s">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35">
+        <v>43850</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="2"/>
@@ -9195,14 +9244,14 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="37">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="38">
-        <v>44237.0</v>
-      </c>
-      <c r="C6" s="39" t="s">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35">
+        <v>44237</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="2"/>
@@ -9226,14 +9275,14 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="37">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="38">
-        <v>44238.0</v>
-      </c>
-      <c r="C7" s="39" t="s">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35">
+        <v>44238</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D7" s="2"/>
@@ -9257,14 +9306,14 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="37">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="38">
-        <v>44239.0</v>
-      </c>
-      <c r="C8" s="39" t="s">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35">
+        <v>44239</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="2"/>
@@ -9288,14 +9337,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="37">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="38">
-        <v>44240.0</v>
-      </c>
-      <c r="C9" s="39" t="s">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35">
+        <v>44240</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="2"/>
@@ -9319,14 +9368,14 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="37">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="38">
-        <v>44241.0</v>
-      </c>
-      <c r="C10" s="39" t="s">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35">
+        <v>44241</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="2"/>
@@ -9350,14 +9399,14 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="37">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="38">
-        <v>44242.0</v>
-      </c>
-      <c r="C11" s="39" t="s">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35">
+        <v>44242</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D11" s="2"/>
@@ -9381,14 +9430,14 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="37">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="38">
-        <v>44243.0</v>
-      </c>
-      <c r="C12" s="39" t="s">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35">
+        <v>44243</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D12" s="2"/>
@@ -9412,14 +9461,14 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="37">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="38">
-        <v>44244.0</v>
-      </c>
-      <c r="C13" s="39" t="s">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35">
+        <v>44244</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="2"/>
@@ -9443,14 +9492,14 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="37">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="38">
-        <v>44245.0</v>
-      </c>
-      <c r="C14" s="39" t="s">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35">
+        <v>44245</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="2"/>
@@ -9474,14 +9523,14 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="37">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="38">
-        <v>44246.0</v>
-      </c>
-      <c r="C15" s="39" t="s">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35">
+        <v>44246</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>107</v>
       </c>
       <c r="D15" s="2"/>
@@ -9505,14 +9554,14 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="37">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="38">
-        <v>44307.0</v>
-      </c>
-      <c r="C16" s="39" t="s">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16" s="35">
+        <v>44307</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D16" s="2"/>
@@ -9536,14 +9585,14 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="37">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="38">
-        <v>44316.0</v>
-      </c>
-      <c r="C17" s="39" t="s">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35">
+        <v>44316</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="2"/>
@@ -9567,14 +9616,14 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="37">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="38">
-        <v>44317.0</v>
-      </c>
-      <c r="C18" s="39" t="s">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35">
+        <v>44317</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>110</v>
       </c>
       <c r="D18" s="2"/>
@@ -9598,14 +9647,14 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="37">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="38">
-        <v>44441.0</v>
-      </c>
-      <c r="C19" s="39" t="s">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19" s="35">
+        <v>44441</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="2"/>
@@ -9629,7 +9678,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9654,7 +9703,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9679,7 +9728,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9704,7 +9753,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9729,7 +9778,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9754,7 +9803,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9779,7 +9828,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9804,7 +9853,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9829,7 +9878,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9854,7 +9903,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9879,7 +9928,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -9904,7 +9953,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -9929,7 +9978,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -9954,7 +10003,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9979,7 +10028,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -10004,7 +10053,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -10029,7 +10078,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -10054,7 +10103,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -10079,7 +10128,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -10104,7 +10153,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -10129,7 +10178,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -10154,7 +10203,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -10179,7 +10228,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -10204,7 +10253,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -10229,7 +10278,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -10254,7 +10303,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -10279,7 +10328,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -10304,7 +10353,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -10329,7 +10378,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -10354,7 +10403,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -10379,7 +10428,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -10404,7 +10453,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -10429,7 +10478,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -10454,7 +10503,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -10479,7 +10528,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -10504,7 +10553,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -10529,7 +10578,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -10554,7 +10603,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -10579,7 +10628,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -10604,7 +10653,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -10629,7 +10678,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -10654,7 +10703,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -10679,7 +10728,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -10704,7 +10753,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -10729,7 +10778,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -10754,7 +10803,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -10779,7 +10828,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -10804,7 +10853,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -10829,7 +10878,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -10854,7 +10903,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -10879,7 +10928,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -10904,7 +10953,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -10929,7 +10978,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -10954,7 +11003,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -10979,7 +11028,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -11004,7 +11053,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -11029,7 +11078,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -11054,7 +11103,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -11079,7 +11128,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -11104,7 +11153,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -11129,7 +11178,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -11154,7 +11203,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -11179,7 +11228,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -11204,7 +11253,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -11229,7 +11278,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -11254,7 +11303,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -11279,7 +11328,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -11304,7 +11353,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -11329,7 +11378,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -11354,7 +11403,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -11379,7 +11428,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -11404,7 +11453,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -11429,7 +11478,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -11454,7 +11503,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -11479,7 +11528,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -11504,7 +11553,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -11529,7 +11578,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -11554,7 +11603,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -11579,7 +11628,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -11604,7 +11653,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -11629,7 +11678,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -11654,7 +11703,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -11679,7 +11728,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -11704,7 +11753,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -11729,7 +11778,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -11754,7 +11803,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -11779,7 +11828,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -11804,7 +11853,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -11829,7 +11878,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -11854,7 +11903,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -11879,7 +11928,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -11904,7 +11953,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -11929,7 +11978,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -11954,7 +12003,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -11979,7 +12028,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -12004,7 +12053,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -12029,7 +12078,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -12054,7 +12103,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -12079,7 +12128,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -12104,7 +12153,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -12129,7 +12178,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -12154,7 +12203,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -12179,7 +12228,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -12204,7 +12253,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -12229,7 +12278,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -12254,7 +12303,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -12279,7 +12328,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -12304,7 +12353,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -12329,7 +12378,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -12354,7 +12403,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -12379,7 +12428,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -12404,7 +12453,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -12429,7 +12478,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -12454,7 +12503,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -12479,7 +12528,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -12504,7 +12553,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -12529,7 +12578,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -12554,7 +12603,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -12579,7 +12628,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -12604,7 +12653,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -12629,7 +12678,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -12654,7 +12703,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -12679,7 +12728,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -12704,7 +12753,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -12729,7 +12778,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -12754,7 +12803,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -12779,7 +12828,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -12804,7 +12853,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -12829,7 +12878,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -12854,7 +12903,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -12879,7 +12928,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -12904,7 +12953,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -12929,7 +12978,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -12954,7 +13003,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -12979,7 +13028,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -13004,7 +13053,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -13029,7 +13078,7 @@
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -13054,7 +13103,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -13079,7 +13128,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -13104,7 +13153,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -13129,7 +13178,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -13154,7 +13203,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -13179,7 +13228,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -13204,7 +13253,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -13229,7 +13278,7 @@
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -13254,7 +13303,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -13279,7 +13328,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -13304,7 +13353,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -13329,7 +13378,7 @@
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -13354,7 +13403,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -13379,7 +13428,7 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -13404,7 +13453,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -13429,7 +13478,7 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -13454,7 +13503,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -13479,7 +13528,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -13504,7 +13553,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -13529,7 +13578,7 @@
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -13554,7 +13603,7 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -13579,7 +13628,7 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -13604,7 +13653,7 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -13629,7 +13678,7 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -13654,7 +13703,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -13679,7 +13728,7 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -13704,7 +13753,7 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -13729,7 +13778,7 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -13754,7 +13803,7 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -13779,7 +13828,7 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -13804,7 +13853,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -13829,7 +13878,7 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -13854,7 +13903,7 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -13879,7 +13928,7 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -13904,7 +13953,7 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -13929,7 +13978,7 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -13954,7 +14003,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -13979,7 +14028,7 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -14004,7 +14053,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -14029,7 +14078,7 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -14054,7 +14103,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -14079,7 +14128,7 @@
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -14104,7 +14153,7 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -14129,7 +14178,7 @@
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -14154,7 +14203,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -14179,7 +14228,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -14204,7 +14253,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -14229,7 +14278,7 @@
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -14254,7 +14303,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -14279,7 +14328,7 @@
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -14304,7 +14353,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -14329,7 +14378,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -14354,7 +14403,7 @@
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -14379,7 +14428,7 @@
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -14404,7 +14453,7 @@
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -14429,7 +14478,7 @@
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -14454,7 +14503,7 @@
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -14479,7 +14528,7 @@
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -14504,7 +14553,7 @@
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -14529,7 +14578,7 @@
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -14554,7 +14603,7 @@
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -14579,7 +14628,7 @@
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -14604,7 +14653,7 @@
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -14629,7 +14678,7 @@
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -14654,790 +14703,788 @@
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TaiLieuCodegym_module2/[A0321I1] TKB Advanced Programming in Java.xlsx
+++ b/TaiLieuCodegym_module2/[A0321I1] TKB Advanced Programming in Java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A0321I1-TranMinhKhoa\TaiLieuCodegym_module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BADF8C9-D516-4799-812F-C539FB6F4F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809F1941-10EE-480C-A096-5C5AB6655031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
   <si>
     <t>THỜI KHOÁ BIỂU</t>
   </si>
@@ -966,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1387,11 +1387,12 @@
       <c r="E13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>112</v>
-      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="39" t="s">
         <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
@@ -1430,10 +1431,13 @@
         <v>31</v>
       </c>
       <c r="F14" s="21" t="str">
-        <f t="shared" ref="F13:F37" si="1">IF(C14="Fri","Nộp báo cáo tuần","")</f>
+        <f>IF(C14="Fri","Nộp báo cáo tuần","")</f>
         <v>Nộp báo cáo tuần</v>
       </c>
       <c r="G14" s="40"/>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
       <c r="L14" s="2"/>
@@ -1471,7 +1475,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F14:F37" si="1">IF(C15="Fri","Nộp báo cáo tuần","")</f>
         <v/>
       </c>
       <c r="G15" s="40"/>

--- a/TaiLieuCodegym_module2/[A0321I1] TKB Advanced Programming in Java.xlsx
+++ b/TaiLieuCodegym_module2/[A0321I1] TKB Advanced Programming in Java.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A0321I1-TranMinhKhoa\TaiLieuCodegym_module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809F1941-10EE-480C-A096-5C5AB6655031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D9B30-3742-4CBE-BA95-4D48FD1DE377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
   <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjtB2y/5DAZBvfVsA5KxcIOrhbnmA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhPTGSFdSI8pzPCVPJcsvfoJc2xWA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
   <si>
     <t>THỜI KHOÁ BIỂU</t>
   </si>
@@ -129,13 +129,22 @@
     <t>Buổi 3</t>
   </si>
   <si>
+    <t>thêm ngày do dịch covid</t>
+  </si>
+  <si>
+    <t>Buổi 4</t>
+  </si>
+  <si>
     <t>APJ.T3</t>
   </si>
   <si>
     <t>APJ.L3</t>
   </si>
   <si>
-    <t>Buổi 4</t>
+    <t>Buổi 5</t>
+  </si>
+  <si>
+    <t>Buổi 6</t>
   </si>
   <si>
     <t>APJ.T4</t>
@@ -144,7 +153,10 @@
     <t>APJ.L4</t>
   </si>
   <si>
-    <t>Buổi 5</t>
+    <t>Buổi 7</t>
+  </si>
+  <si>
+    <t>Buổi 8</t>
   </si>
   <si>
     <t>APJ.T5</t>
@@ -153,10 +165,10 @@
     <t>APJ.L5</t>
   </si>
   <si>
-    <t>Buổi 6</t>
+    <t>Buổi 9</t>
   </si>
   <si>
-    <t>Buổi 7</t>
+    <t>Buổi 10</t>
   </si>
   <si>
     <t>APJ.T6</t>
@@ -165,10 +177,10 @@
     <t>APJ.L6</t>
   </si>
   <si>
-    <t>Buổi 8</t>
+    <t>Buổi 11</t>
   </si>
   <si>
-    <t>Buổi 9</t>
+    <t>Buổi 12</t>
   </si>
   <si>
     <t>APJ.T7</t>
@@ -177,10 +189,10 @@
     <t>APJ.L7</t>
   </si>
   <si>
-    <t>Buổi 10</t>
+    <t>Buổi 13</t>
   </si>
   <si>
-    <t>Buổi 11</t>
+    <t>Buổi 14</t>
   </si>
   <si>
     <t>APJ.T8</t>
@@ -189,7 +201,7 @@
     <t>APJ.L8</t>
   </si>
   <si>
-    <t>Buổi 12</t>
+    <t>Buổi 15</t>
   </si>
   <si>
     <t>APJ.T10</t>
@@ -198,10 +210,10 @@
     <t>APJ.L10</t>
   </si>
   <si>
-    <t>Buổi 13</t>
+    <t>Buổi 16</t>
   </si>
   <si>
-    <t>Buổi 14</t>
+    <t>Buổi 17</t>
   </si>
   <si>
     <t>APJ.T11</t>
@@ -210,10 +222,10 @@
     <t>APJ.L11</t>
   </si>
   <si>
-    <t>Buổi 15</t>
+    <t>Buổi 18</t>
   </si>
   <si>
-    <t>Buổi 16</t>
+    <t>Buổi 19</t>
   </si>
   <si>
     <t>APJ.T12</t>
@@ -222,10 +234,10 @@
     <t>APJ.L12</t>
   </si>
   <si>
-    <t>Buổi 17</t>
+    <t>Buổi 20</t>
   </si>
   <si>
-    <t>Buổi 18</t>
+    <t>Buổi 21</t>
   </si>
   <si>
     <t>APJ.T13</t>
@@ -234,7 +246,7 @@
     <t>APJ.L13</t>
   </si>
   <si>
-    <t>Buổi 19</t>
+    <t>Buổi 22</t>
   </si>
   <si>
     <t>APJ.T14</t>
@@ -243,7 +255,7 @@
     <t>APJ.L14</t>
   </si>
   <si>
-    <t>Buổi 20</t>
+    <t>Buổi 23</t>
   </si>
   <si>
     <t>APJ.T15</t>
@@ -252,10 +264,10 @@
     <t>APJ.L15</t>
   </si>
   <si>
-    <t>Buổi 21</t>
+    <t>Buổi 24</t>
   </si>
   <si>
-    <t>Buổi 22</t>
+    <t>Buổi 25</t>
   </si>
   <si>
     <t>APJ.T16</t>
@@ -264,7 +276,7 @@
     <t>APJ.L16</t>
   </si>
   <si>
-    <t>Buổi 23</t>
+    <t>Buổi 26</t>
   </si>
   <si>
     <t>APJ.T19</t>
@@ -273,7 +285,7 @@
     <t>APJ.L19</t>
   </si>
   <si>
-    <t>Buổi 24</t>
+    <t>Buổi 27</t>
   </si>
   <si>
     <t>APJ.T20</t>
@@ -282,19 +294,19 @@
     <t>APJ.L20</t>
   </si>
   <si>
-    <t>Buổi 25</t>
+    <t>Buổi 28</t>
   </si>
   <si>
     <t>CaseStudyBS</t>
   </si>
   <si>
-    <t>Buổi 26</t>
+    <t>Buổi 29</t>
   </si>
   <si>
     <t>Retros CAH</t>
   </si>
   <si>
-    <t>Buổi 27</t>
+    <t>Buổi 30</t>
   </si>
   <si>
     <t>BP. Exam</t>
@@ -303,7 +315,7 @@
     <t>Phiếu GPA, Tự đánh giá năng lực cho Học viên, Giảng viên</t>
   </si>
   <si>
-    <t>Buổi 28</t>
+    <t>Buổi 31</t>
   </si>
   <si>
     <t>Tổng kết</t>
@@ -629,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -679,6 +691,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -701,6 +716,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -964,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -976,7 +992,7 @@
     <col min="2" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="42.08984375" customWidth="1"/>
+    <col min="6" max="6" width="42.1796875" customWidth="1"/>
     <col min="7" max="7" width="24.81640625" customWidth="1"/>
     <col min="8" max="9" width="11.453125" customWidth="1"/>
     <col min="10" max="26" width="13.453125" customWidth="1"/>
@@ -1166,10 +1182,10 @@
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="2"/>
       <c r="E7" s="8" t="s">
         <v>7</v>
@@ -1202,10 +1218,10 @@
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8" t="s">
         <v>11</v>
@@ -1378,7 +1394,7 @@
         <v>44363</v>
       </c>
       <c r="C13" s="19" t="str">
-        <f t="shared" ref="C13:C40" si="0">TEXT(B13,"ddd")</f>
+        <f t="shared" ref="C13:C43" si="0">TEXT(B13,"ddd")</f>
         <v>Wed</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -1387,12 +1403,15 @@
       <c r="E13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="39" t="s">
+      <c r="F13" s="21" t="str">
+        <f t="shared" ref="F13:F14" si="1">IF(C13="Fri","Nộp báo cáo tuần","")</f>
+        <v/>
+      </c>
+      <c r="G13" s="41" t="s">
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
@@ -1431,12 +1450,12 @@
         <v>31</v>
       </c>
       <c r="F14" s="21" t="str">
-        <f>IF(C14="Fri","Nộp báo cáo tuần","")</f>
+        <f t="shared" si="1"/>
         <v>Nộp báo cáo tuần</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="42"/>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
@@ -1468,17 +1487,19 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="21" t="str">
-        <f t="shared" ref="F14:F37" si="1">IF(C15="Fri","Nộp báo cáo tuần","")</f>
-        <v/>
-      </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
       <c r="L15" s="2"/>
@@ -1499,7 +1520,7 @@
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="22">
         <f>WORKDAY(B15,IF(WEEKDAY(B15) = 2, 2,IF(WEEKDAY(B15)=4,2,IF(WEEKDAY(B15)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1510,16 +1531,15 @@
         <v>Wed</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
@@ -1540,7 +1560,7 @@
     </row>
     <row r="17" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="22">
         <f>WORKDAY(B16,IF(WEEKDAY(B16) = 2, 2,IF(WEEKDAY(B16)=4,2,IF(WEEKDAY(B16)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1550,17 +1570,19 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>39</v>
+      <c r="D17" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>Nộp báo cáo tuần</v>
-      </c>
-      <c r="G17" s="40"/>
+        <v>36</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
       <c r="L17" s="2"/>
@@ -1581,7 +1603,7 @@
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="22">
         <f>WORKDAY(B17,IF(WEEKDAY(B17) = 2, 2,IF(WEEKDAY(B17)=4,2,IF(WEEKDAY(B17)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1591,17 +1613,16 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>40</v>
+      <c r="D18" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="42"/>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
@@ -1622,7 +1643,7 @@
     </row>
     <row r="19" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="22">
         <f>WORKDAY(B18,IF(WEEKDAY(B18) = 2, 2,IF(WEEKDAY(B18)=4,2,IF(WEEKDAY(B18)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1632,17 +1653,19 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>43</v>
+      <c r="D19" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G19" s="40"/>
+        <v>40</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
@@ -1663,7 +1686,7 @@
     </row>
     <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="22">
         <f>WORKDAY(B19,IF(WEEKDAY(B19) = 2, 2,IF(WEEKDAY(B19)=4,2,IF(WEEKDAY(B19)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1673,17 +1696,20 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>44</v>
+      <c r="D20" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F20:F40" si="2">IF(C20="Fri","Nộp báo cáo tuần","")</f>
         <v>Nộp báo cáo tuần</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="42"/>
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
@@ -1704,7 +1730,7 @@
     </row>
     <row r="21" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="22">
         <f>WORKDAY(B20,IF(WEEKDAY(B20) = 2, 2,IF(WEEKDAY(B20)=4,2,IF(WEEKDAY(B20)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1714,17 +1740,20 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>47</v>
+      <c r="D21" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F21" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
       <c r="L21" s="2"/>
@@ -1745,7 +1774,7 @@
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" s="22">
         <f>WORKDAY(B21,IF(WEEKDAY(B21) = 2, 2,IF(WEEKDAY(B21)=4,2,IF(WEEKDAY(B21)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1755,19 +1784,22 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>48</v>
+      <c r="D22" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="42"/>
+      <c r="H22" t="s">
+        <v>116</v>
+      </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="2"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1786,7 +1818,7 @@
     </row>
     <row r="23" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="22">
         <f>WORKDAY(B22,IF(WEEKDAY(B22) = 2, 2,IF(WEEKDAY(B22)=4,2,IF(WEEKDAY(B22)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1796,19 +1828,22 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>51</v>
+      <c r="D23" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F23" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nộp báo cáo tuần</v>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="23"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="2"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1827,7 +1862,7 @@
     </row>
     <row r="24" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24" s="22">
         <f>WORKDAY(B23,IF(WEEKDAY(B23) = 2, 2,IF(WEEKDAY(B23)=4,2,IF(WEEKDAY(B23)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1838,16 +1873,19 @@
         <v>Mon</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G24" s="40"/>
+      <c r="G24" s="42"/>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
@@ -1868,7 +1906,7 @@
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" s="22">
         <f>WORKDAY(B24,IF(WEEKDAY(B24) = 2, 2,IF(WEEKDAY(B24)=4,2,IF(WEEKDAY(B24)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1879,18 +1917,21 @@
         <v>Wed</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F25" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1909,7 +1950,7 @@
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="22">
         <f>WORKDAY(B25,IF(WEEKDAY(B25) = 2, 2,IF(WEEKDAY(B25)=4,2,IF(WEEKDAY(B25)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1920,18 +1961,21 @@
         <v>Fri</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nộp báo cáo tuần</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="42"/>
+      <c r="H26" t="s">
+        <v>116</v>
+      </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="2"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1950,7 +1994,7 @@
     </row>
     <row r="27" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B27" s="22">
         <f>WORKDAY(B26,IF(WEEKDAY(B26) = 2, 2,IF(WEEKDAY(B26)=4,2,IF(WEEKDAY(B26)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -1960,17 +2004,20 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>59</v>
+      <c r="D27" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G27" s="40"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
@@ -1991,7 +2038,7 @@
     </row>
     <row r="28" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="22">
         <f>WORKDAY(B27,IF(WEEKDAY(B27) = 2, 2,IF(WEEKDAY(B27)=4,2,IF(WEEKDAY(B27)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2001,17 +2048,20 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>62</v>
+      <c r="D28" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F28" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="42"/>
+      <c r="H28" t="s">
+        <v>116</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
@@ -2032,7 +2082,7 @@
     </row>
     <row r="29" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" s="22">
         <f>WORKDAY(B28,IF(WEEKDAY(B28) = 2, 2,IF(WEEKDAY(B28)=4,2,IF(WEEKDAY(B28)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2042,17 +2092,17 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>63</v>
+      <c r="D29" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nộp báo cáo tuần</v>
       </c>
-      <c r="G29" s="40"/>
+      <c r="G29" s="42"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
@@ -2073,7 +2123,7 @@
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="22">
         <f>WORKDAY(B29,IF(WEEKDAY(B29) = 2, 2,IF(WEEKDAY(B29)=4,2,IF(WEEKDAY(B29)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2083,17 +2133,17 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>66</v>
+      <c r="D30" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F30" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G30" s="40"/>
+      <c r="G30" s="42"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
@@ -2114,7 +2164,7 @@
     </row>
     <row r="31" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B31" s="22">
         <f>WORKDAY(B30,IF(WEEKDAY(B30) = 2, 2,IF(WEEKDAY(B30)=4,2,IF(WEEKDAY(B30)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2125,16 +2175,16 @@
         <v>Wed</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F31" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G31" s="40"/>
+      <c r="G31" s="42"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
@@ -2155,7 +2205,7 @@
     </row>
     <row r="32" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32" s="22">
         <f>WORKDAY(B31,IF(WEEKDAY(B31) = 2, 2,IF(WEEKDAY(B31)=4,2,IF(WEEKDAY(B31)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2165,17 +2215,17 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>72</v>
+      <c r="D32" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F32" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nộp báo cáo tuần</v>
       </c>
-      <c r="G32" s="40"/>
+      <c r="G32" s="42"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
@@ -2196,7 +2246,7 @@
     </row>
     <row r="33" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B33" s="22">
         <f>WORKDAY(B32,IF(WEEKDAY(B32) = 2, 2,IF(WEEKDAY(B32)=4,2,IF(WEEKDAY(B32)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2206,17 +2256,17 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>73</v>
+      <c r="D33" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F33" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G33" s="40"/>
+      <c r="G33" s="42"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
@@ -2237,7 +2287,7 @@
     </row>
     <row r="34" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" s="22">
         <f>WORKDAY(B33,IF(WEEKDAY(B33) = 2, 2,IF(WEEKDAY(B33)=4,2,IF(WEEKDAY(B33)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2248,16 +2298,16 @@
         <v>Wed</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F34" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="42"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
       <c r="L34" s="2"/>
@@ -2278,7 +2328,7 @@
     </row>
     <row r="35" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="22">
         <f>WORKDAY(B34,IF(WEEKDAY(B34) = 2, 2,IF(WEEKDAY(B34)=4,2,IF(WEEKDAY(B34)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2289,16 +2339,16 @@
         <v>Fri</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F35" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nộp báo cáo tuần</v>
       </c>
-      <c r="G35" s="40"/>
+      <c r="G35" s="42"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
@@ -2319,7 +2369,7 @@
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B36" s="22">
         <f>WORKDAY(B35,IF(WEEKDAY(B35) = 2, 2,IF(WEEKDAY(B35)=4,2,IF(WEEKDAY(B35)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2329,17 +2379,17 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>83</v>
+      <c r="D36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="F36" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G36" s="40"/>
+      <c r="G36" s="42"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
@@ -2358,9 +2408,9 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B37" s="22">
         <f>WORKDAY(B36,IF(WEEKDAY(B36) = 2, 2,IF(WEEKDAY(B36)=4,2,IF(WEEKDAY(B36)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2370,19 +2420,17 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>85</v>
+      <c r="D37" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="F37" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="G37" s="42"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
       <c r="L37" s="2"/>
@@ -2401,9 +2449,9 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B38" s="22">
         <f>WORKDAY(B37,IF(WEEKDAY(B37) = 2, 2,IF(WEEKDAY(B37)=4,2,IF(WEEKDAY(B37)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2413,18 +2461,17 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="D38" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>Nộp báo cáo tuần</v>
+      </c>
+      <c r="G38" s="42"/>
       <c r="J38" s="2"/>
       <c r="K38" s="1"/>
       <c r="L38" s="2"/>
@@ -2443,9 +2490,9 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B39" s="22">
         <f>WORKDAY(B38,IF(WEEKDAY(B38) = 2, 2,IF(WEEKDAY(B38)=4,2,IF(WEEKDAY(B38)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2455,18 +2502,17 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>89</v>
+      <c r="D39" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="F39" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G39" s="42"/>
       <c r="J39" s="2"/>
       <c r="K39" s="1"/>
       <c r="L39" s="2"/>
@@ -2485,9 +2531,9 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40" s="22">
         <f>WORKDAY(B39,IF(WEEKDAY(B39) = 2, 2,IF(WEEKDAY(B39)=4,2,IF(WEEKDAY(B39)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
@@ -2497,17 +2543,22 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="D40" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="41"/>
+      <c r="D40" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G40" s="42"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="2"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2523,19 +2574,33 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="12"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="22">
+        <f>WORKDAY(B40,IF(WEEKDAY(B40) = 2, 2,IF(WEEKDAY(B40)=4,2,IF(WEEKDAY(B40)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
+        <v>44428</v>
+      </c>
+      <c r="C41" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="42"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="2"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -2551,23 +2616,33 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31" t="s">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="22">
+        <f>WORKDAY(B41,IF(WEEKDAY(B41) = 2, 2,IF(WEEKDAY(B41)=4,2,IF(WEEKDAY(B41)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
+        <v>44431</v>
+      </c>
+      <c r="C42" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="12"/>
+      <c r="G42" s="42"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="2"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="2"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2584,17 +2659,23 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="22">
+        <f>WORKDAY(B42,IF(WEEKDAY(B42) = 2, 2,IF(WEEKDAY(B42)=4,2,IF(WEEKDAY(B42)=6,1,2))),'Holidays 2020,2021'!$B$2:$B$18)</f>
+        <v>44433</v>
+      </c>
+      <c r="C43" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="12"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="43"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="1"/>
@@ -2617,12 +2698,8 @@
     </row>
     <row r="44" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
-      <c r="B44" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2647,13 +2724,13 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>99</v>
+    <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2679,13 +2756,13 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2711,10 +2788,14 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2741,8 +2822,12 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2769,8 +2854,12 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3810,9 +3899,9 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -3838,9 +3927,9 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -3866,9 +3955,9 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -8088,88 +8177,88 @@
       <c r="Z238" s="1"/>
     </row>
     <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
-      <c r="Q239" s="2"/>
-      <c r="R239" s="2"/>
-      <c r="S239" s="2"/>
-      <c r="T239" s="2"/>
-      <c r="U239" s="2"/>
-      <c r="V239" s="2"/>
-      <c r="W239" s="2"/>
-      <c r="X239" s="2"/>
-      <c r="Y239" s="2"/>
-      <c r="Z239" s="2"/>
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
     </row>
     <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
-      <c r="O240" s="2"/>
-      <c r="P240" s="2"/>
-      <c r="Q240" s="2"/>
-      <c r="R240" s="2"/>
-      <c r="S240" s="2"/>
-      <c r="T240" s="2"/>
-      <c r="U240" s="2"/>
-      <c r="V240" s="2"/>
-      <c r="W240" s="2"/>
-      <c r="X240" s="2"/>
-      <c r="Y240" s="2"/>
-      <c r="Z240" s="2"/>
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+      <c r="W240" s="1"/>
+      <c r="X240" s="1"/>
+      <c r="Y240" s="1"/>
+      <c r="Z240" s="1"/>
     </row>
     <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="2"/>
-      <c r="N241" s="2"/>
-      <c r="O241" s="2"/>
-      <c r="P241" s="2"/>
-      <c r="Q241" s="2"/>
-      <c r="R241" s="2"/>
-      <c r="S241" s="2"/>
-      <c r="T241" s="2"/>
-      <c r="U241" s="2"/>
-      <c r="V241" s="2"/>
-      <c r="W241" s="2"/>
-      <c r="X241" s="2"/>
-      <c r="Y241" s="2"/>
-      <c r="Z241" s="2"/>
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+      <c r="W241" s="1"/>
+      <c r="X241" s="1"/>
+      <c r="Y241" s="1"/>
+      <c r="Z241" s="1"/>
     </row>
     <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2"/>
@@ -8311,9 +8400,90 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+      <c r="L247" s="2"/>
+      <c r="M247" s="2"/>
+      <c r="N247" s="2"/>
+      <c r="O247" s="2"/>
+      <c r="P247" s="2"/>
+      <c r="Q247" s="2"/>
+      <c r="R247" s="2"/>
+      <c r="S247" s="2"/>
+      <c r="T247" s="2"/>
+      <c r="U247" s="2"/>
+      <c r="V247" s="2"/>
+      <c r="W247" s="2"/>
+      <c r="X247" s="2"/>
+      <c r="Y247" s="2"/>
+      <c r="Z247" s="2"/>
+    </row>
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+      <c r="L248" s="2"/>
+      <c r="M248" s="2"/>
+      <c r="N248" s="2"/>
+      <c r="O248" s="2"/>
+      <c r="P248" s="2"/>
+      <c r="Q248" s="2"/>
+      <c r="R248" s="2"/>
+      <c r="S248" s="2"/>
+      <c r="T248" s="2"/>
+      <c r="U248" s="2"/>
+      <c r="V248" s="2"/>
+      <c r="W248" s="2"/>
+      <c r="X248" s="2"/>
+      <c r="Y248" s="2"/>
+      <c r="Z248" s="2"/>
+    </row>
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="2"/>
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+      <c r="P249" s="2"/>
+      <c r="Q249" s="2"/>
+      <c r="R249" s="2"/>
+      <c r="S249" s="2"/>
+      <c r="T249" s="2"/>
+      <c r="U249" s="2"/>
+      <c r="V249" s="2"/>
+      <c r="W249" s="2"/>
+      <c r="X249" s="2"/>
+      <c r="Y249" s="2"/>
+      <c r="Z249" s="2"/>
+    </row>
     <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9065,11 +9235,14 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G13:G40"/>
+    <mergeCell ref="G13:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9094,14 +9267,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>104</v>
+      <c r="A1" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9125,14 +9298,14 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="36">
         <v>44197</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>105</v>
+      <c r="C2" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -9156,14 +9329,14 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="36">
         <v>44235</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>106</v>
+      <c r="C3" s="37" t="s">
+        <v>110</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -9187,14 +9360,14 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="36">
         <v>44236</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>107</v>
+      <c r="C4" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9218,14 +9391,14 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="36">
         <v>43850</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>107</v>
+      <c r="C5" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -9249,14 +9422,14 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="36">
         <v>44237</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>107</v>
+      <c r="C6" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9280,14 +9453,14 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34">
+      <c r="A7" s="35">
         <v>6</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="36">
         <v>44238</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>107</v>
+      <c r="C7" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -9311,14 +9484,14 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="36">
         <v>44239</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>107</v>
+      <c r="C8" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -9342,14 +9515,14 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="36">
         <v>44240</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>107</v>
+      <c r="C9" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9373,14 +9546,14 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="36">
         <v>44241</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>107</v>
+      <c r="C10" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9404,14 +9577,14 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34">
+      <c r="A11" s="35">
         <v>10</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="36">
         <v>44242</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>107</v>
+      <c r="C11" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -9435,14 +9608,14 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34">
+      <c r="A12" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="36">
         <v>44243</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>107</v>
+      <c r="C12" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9466,14 +9639,14 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34">
+      <c r="A13" s="35">
         <v>12</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="36">
         <v>44244</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>107</v>
+      <c r="C13" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -9497,14 +9670,14 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34">
+      <c r="A14" s="35">
         <v>13</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="36">
         <v>44245</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>107</v>
+      <c r="C14" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -9528,14 +9701,14 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34">
+      <c r="A15" s="35">
         <v>14</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="36">
         <v>44246</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>107</v>
+      <c r="C15" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -9559,14 +9732,14 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34">
+      <c r="A16" s="35">
         <v>15</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="36">
         <v>44307</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>108</v>
+      <c r="C16" s="37" t="s">
+        <v>112</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -9590,14 +9763,14 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34">
+      <c r="A17" s="35">
         <v>16</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="36">
         <v>44316</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>109</v>
+      <c r="C17" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -9621,14 +9794,14 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34">
+      <c r="A18" s="35">
         <v>17</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="36">
         <v>44317</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>110</v>
+      <c r="C18" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -9652,14 +9825,14 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34">
+      <c r="A19" s="35">
         <v>18</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="36">
         <v>44441</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>111</v>
+      <c r="C19" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>

--- a/TaiLieuCodegym_module2/[A0321I1] TKB Advanced Programming in Java.xlsx
+++ b/TaiLieuCodegym_module2/[A0321I1] TKB Advanced Programming in Java.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A0321I1-TranMinhKhoa\TaiLieuCodegym_module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D9B30-3742-4CBE-BA95-4D48FD1DE377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D616331-0E04-401D-923D-19523D4AC0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
   <si>
     <t>THỜI KHOÁ BIỂU</t>
   </si>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2103,6 +2103,9 @@
         <v>Nộp báo cáo tuần</v>
       </c>
       <c r="G29" s="42"/>
+      <c r="H29" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
@@ -2144,6 +2147,9 @@
         <v/>
       </c>
       <c r="G30" s="42"/>
+      <c r="H30" t="s">
+        <v>116</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
@@ -2185,6 +2191,9 @@
         <v/>
       </c>
       <c r="G31" s="42"/>
+      <c r="H31" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
@@ -2226,6 +2235,9 @@
         <v>Nộp báo cáo tuần</v>
       </c>
       <c r="G32" s="42"/>
+      <c r="H32" t="s">
+        <v>116</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
@@ -2267,6 +2279,9 @@
         <v/>
       </c>
       <c r="G33" s="42"/>
+      <c r="H33" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
@@ -2308,6 +2323,9 @@
         <v/>
       </c>
       <c r="G34" s="42"/>
+      <c r="H34" t="s">
+        <v>116</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
       <c r="L34" s="2"/>
